--- a/data/pmi.xlsx
+++ b/data/pmi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\Documents\PAMGMT\economics\data\ism-manufacturing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\OneDrive\PAMGMT\Economics\data\ism-manufacturing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,16 +101,6 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[headline-index.xlsx]Sheet1!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
       <tp>
         <v>17563</v>
         <stp/>
@@ -119,12 +109,22 @@
         <stp>PX_LAST</stp>
         <stp>1/1/1900</stp>
         <stp/>
-        <stp>[headline-index.xlsx]Sheet1!R7C1</stp>
+        <stp>[pmi.xlsx]Sheet1!R7C1</stp>
         <stp>Dir=V</stp>
         <stp>Per=M</stp>
         <stp>Dts=S</stp>
-        <stp>cols=2;rows=864</stp>
+        <stp>cols=2;rows=869</stp>
         <tr r="A7" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[pmi.xlsx]Sheet1!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B870"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=864")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=869")</f>
         <v>17563</v>
       </c>
       <c r="B7">
@@ -6592,7 +6592,7 @@
         <v>40939</v>
       </c>
       <c r="B775">
-        <v>52.6</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>40968</v>
       </c>
       <c r="B776">
-        <v>53.1</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>41029</v>
       </c>
       <c r="B778">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>41090</v>
       </c>
       <c r="B780">
-        <v>49.7</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
         <v>41121</v>
       </c>
       <c r="B781">
-        <v>50</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>41152</v>
       </c>
       <c r="B782">
-        <v>50.2</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>41182</v>
       </c>
       <c r="B783">
-        <v>51.8</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>41213</v>
       </c>
       <c r="B784">
-        <v>50.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>41243</v>
       </c>
       <c r="B785">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>41274</v>
       </c>
       <c r="B786">
-        <v>49.8</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
@@ -6688,7 +6688,7 @@
         <v>41305</v>
       </c>
       <c r="B787">
-        <v>52</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
         <v>41333</v>
       </c>
       <c r="B788">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>41364</v>
       </c>
       <c r="B789">
-        <v>52</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>41394</v>
       </c>
       <c r="B790">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>41425</v>
       </c>
       <c r="B791">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>41455</v>
       </c>
       <c r="B792">
-        <v>51.5</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>41486</v>
       </c>
       <c r="B793">
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
         <v>41517</v>
       </c>
       <c r="B794">
-        <v>55.9</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>41547</v>
       </c>
       <c r="B795">
-        <v>54.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>41578</v>
       </c>
       <c r="B796">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -6768,7 +6768,7 @@
         <v>41608</v>
       </c>
       <c r="B797">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
         <v>41639</v>
       </c>
       <c r="B798">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +6784,7 @@
         <v>41670</v>
       </c>
       <c r="B799">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
         <v>41698</v>
       </c>
       <c r="B800">
-        <v>54.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +6800,7 @@
         <v>41729</v>
       </c>
       <c r="B801">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +6808,7 @@
         <v>41759</v>
       </c>
       <c r="B802">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
         <v>41790</v>
       </c>
       <c r="B803">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>41820</v>
       </c>
       <c r="B804">
-        <v>55</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
         <v>41851</v>
       </c>
       <c r="B805">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -6840,7 +6840,7 @@
         <v>41882</v>
       </c>
       <c r="B806">
-        <v>58</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>41912</v>
       </c>
       <c r="B807">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
         <v>41943</v>
       </c>
       <c r="B808">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,7 @@
         <v>42004</v>
       </c>
       <c r="B810">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6880,7 @@
         <v>42035</v>
       </c>
       <c r="B811">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6888,7 +6888,7 @@
         <v>42063</v>
       </c>
       <c r="B812">
-        <v>53</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>42094</v>
       </c>
       <c r="B813">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
         <v>42124</v>
       </c>
       <c r="B814">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>42155</v>
       </c>
       <c r="B815">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
@@ -6920,7 +6920,7 @@
         <v>42185</v>
       </c>
       <c r="B816">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6928,7 +6928,7 @@
         <v>42216</v>
       </c>
       <c r="B817">
-        <v>51.8</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
         <v>42247</v>
       </c>
       <c r="B818">
-        <v>50.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6944,7 +6944,7 @@
         <v>42277</v>
       </c>
       <c r="B819">
-        <v>50</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
         <v>42308</v>
       </c>
       <c r="B820">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>42338</v>
       </c>
       <c r="B821">
-        <v>48.9</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -6968,7 +6968,7 @@
         <v>42369</v>
       </c>
       <c r="B822">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -6976,7 +6976,7 @@
         <v>42400</v>
       </c>
       <c r="B823">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,7 +6984,7 @@
         <v>42429</v>
       </c>
       <c r="B824">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>42460</v>
       </c>
       <c r="B825">
-        <v>51.2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
         <v>42490</v>
       </c>
       <c r="B826">
-        <v>51.1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>42521</v>
       </c>
       <c r="B827">
-        <v>50.9</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>42582</v>
       </c>
       <c r="B829">
-        <v>52.9</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>42613</v>
       </c>
       <c r="B830">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -7040,7 +7040,7 @@
         <v>42643</v>
       </c>
       <c r="B831">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
         <v>42674</v>
       </c>
       <c r="B832">
-        <v>51.7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -7056,7 +7056,7 @@
         <v>42704</v>
       </c>
       <c r="B833">
-        <v>53</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>42735</v>
       </c>
       <c r="B834">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7072,7 +7072,7 @@
         <v>42766</v>
       </c>
       <c r="B835">
-        <v>56</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,7 +7080,7 @@
         <v>42794</v>
       </c>
       <c r="B836">
-        <v>57.6</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7088,7 +7088,7 @@
         <v>42825</v>
       </c>
       <c r="B837">
-        <v>56.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7096,7 @@
         <v>42855</v>
       </c>
       <c r="B838">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7104,7 +7104,7 @@
         <v>42886</v>
       </c>
       <c r="B839">
-        <v>55.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -7112,7 +7112,7 @@
         <v>42916</v>
       </c>
       <c r="B840">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>42947</v>
       </c>
       <c r="B841">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>42978</v>
       </c>
       <c r="B842">
-        <v>58.9</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>43008</v>
       </c>
       <c r="B843">
-        <v>60</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7144,7 +7144,7 @@
         <v>43039</v>
       </c>
       <c r="B844">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
         <v>43069</v>
       </c>
       <c r="B845">
-        <v>57.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
         <v>43100</v>
       </c>
       <c r="B846">
-        <v>59.4</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>43131</v>
       </c>
       <c r="B847">
-        <v>59.6</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
         <v>43159</v>
       </c>
       <c r="B848">
-        <v>60.7</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
@@ -7184,7 +7184,7 @@
         <v>43190</v>
       </c>
       <c r="B849">
-        <v>59.3</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>43220</v>
       </c>
       <c r="B850">
-        <v>57.9</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,7 +7200,7 @@
         <v>43251</v>
       </c>
       <c r="B851">
-        <v>58.7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7208,7 +7208,7 @@
         <v>43281</v>
       </c>
       <c r="B852">
-        <v>60</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>43312</v>
       </c>
       <c r="B853">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>43373</v>
       </c>
       <c r="B855">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,7 +7240,7 @@
         <v>43404</v>
       </c>
       <c r="B856">
-        <v>57.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>43465</v>
       </c>
       <c r="B858">
-        <v>54.3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
         <v>43496</v>
       </c>
       <c r="B859">
-        <v>56.6</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>43524</v>
       </c>
       <c r="B860">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7280,7 +7280,7 @@
         <v>43555</v>
       </c>
       <c r="B861">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7288,7 +7288,7 @@
         <v>43585</v>
       </c>
       <c r="B862">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -7296,7 +7296,7 @@
         <v>43616</v>
       </c>
       <c r="B863">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
         <v>43646</v>
       </c>
       <c r="B864">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7312,7 +7312,7 @@
         <v>43677</v>
       </c>
       <c r="B865">
-        <v>51.2</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
         <v>43708</v>
       </c>
       <c r="B866">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
         <v>43738</v>
       </c>
       <c r="B867">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
         <v>43769</v>
       </c>
       <c r="B868">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,47 @@
         <v>43830</v>
       </c>
       <c r="B870">
-        <v>47.2</v>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B871">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B872">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B873">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B874">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B875">
+        <v>43.1</v>
       </c>
     </row>
   </sheetData>
